--- a/biology/Botanique/Square_Trousseau/Square_Trousseau.xlsx
+++ b/biology/Botanique/Square_Trousseau/Square_Trousseau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le square Trousseau[1] est un square du 12e arrondissement de Paris. 
+Le square Trousseau est un square du 12e arrondissement de Paris. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De forme rectangulaire, il est délimité par la rue du Faubourg-Saint-Antoine (espace séparant le no 106 et le no 118), la rue Charles-Baudelaire, la rue Théophile-Roussel et la rue Antoine-Vollon. Il abrite un kiosque à musique et des jeux pour enfants. Une partie florale y est préservée du côté de la rue du Faubourg-Saint-Antoine.
 Le site est accessible par le 2, rue Antoine-Vollon.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rend hommage au médecin, clinicien et homme politique français Armand Trousseau (1801-1867).
 </t>
@@ -576,11 +592,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existait un cimetière des Enfants-Trouvés, aujourd'hui disparu. Le corps décapité de la princesse de Lamballe (1749-1792), amie de Marie-Antoinette, y fut jeté après son lynchage devant la prison de la Force. On y adjoignit sa tête qu'un citoyen avait récupérée après qu'elle a été exhibée dans Paris, plantée au bout d'une pique[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existait un cimetière des Enfants-Trouvés, aujourd'hui disparu. Le corps décapité de la princesse de Lamballe (1749-1792), amie de Marie-Antoinette, y fut jeté après son lynchage devant la prison de la Force. On y adjoignit sa tête qu'un citoyen avait récupérée après qu'elle a été exhibée dans Paris, plantée au bout d'une pique.
 Le square a également été l'emplacement de l'hôpital des Enfants-Trouvés. L'Hôpital général acquit en 1674 les terrains situés entre la rue du Faubourg-Saint-Antoine, la rue de Cotte, la rue de Charenton et la rue Traversière pour y édifier un hospice destiné aux enfants trouvés. Environ un millier d'enfants étaient abandonnés chaque année à Paris. L'hospice en accueillait six cents, dont s'occupaient les Sœurs de la charité.
-Devenu une annexe de l'Hôtel-Dieu de Paris, l'hospice des Enfants-Trouvés fut rebaptisé « hôpital Sainte-Marguerite » en 1839 avant d'être transformé en 1854 en hôpital pour enfants malades sous le nom d'« hôpital Sainte-Eugénie ». Appelé « Trousseau » en 1880, il fut démoli en 1902 et le nom de Trousseau fut transféré à l’hôpital Armand-Trousseau de l’avenue du Docteur-Arnold-Netter[3].
+Devenu une annexe de l'Hôtel-Dieu de Paris, l'hospice des Enfants-Trouvés fut rebaptisé « hôpital Sainte-Marguerite » en 1839 avant d'être transformé en 1854 en hôpital pour enfants malades sous le nom d'« hôpital Sainte-Eugénie ». Appelé « Trousseau » en 1880, il fut démoli en 1902 et le nom de Trousseau fut transféré à l’hôpital Armand-Trousseau de l’avenue du Docteur-Arnold-Netter.
 			Le square Trousseau lors des inondations de 1910.
 			Square Trousseau, Paris 12e.
 </t>
@@ -611,7 +629,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un vide-greniers y est organisé tous les ans.
 Le festival Kiosquorama anime également le square et son kiosque à musique chaque mois de septembre avec concerts, ateliers…
